--- a/gilded exercise docs/backstage.xlsx
+++ b/gilded exercise docs/backstage.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L41561691R\curso\gilded exercise docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L41561691R\curso\vs code\git\testing_qa_logirail\gilded exercise docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{737FDCED-C26C-42FF-86A2-A4D148125ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2FEC872-61AF-4443-AFE3-6BD0C15DE938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{55CDA62E-EBE1-4D1B-8807-E2A13CEBC85D}"/>
   </bookViews>
@@ -243,7 +243,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,6 +253,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -329,7 +337,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -339,6 +347,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -656,7 +665,7 @@
   <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1192,11 +1201,13 @@
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="F12" s="9"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="J12" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
@@ -1266,7 +1277,9 @@
       <c r="I14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J14" s="3"/>
+      <c r="J14" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="K14" s="3" t="s">
         <v>11</v>
       </c>
@@ -1299,9 +1312,7 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
@@ -1578,7 +1589,7 @@
         <v>3</v>
       </c>
       <c r="J24" s="2">
-        <v>-21</v>
+        <v>-22</v>
       </c>
       <c r="K24" s="2">
         <v>32</v>
@@ -1623,7 +1634,7 @@
         <v>50</v>
       </c>
       <c r="J25" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="K25" s="2">
         <v>11</v>
@@ -1655,9 +1666,7 @@
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
-      <c r="J26" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
